--- a/análisis/Requerimientos/Funcionales/RF04_Asignar horaio.xlsx
+++ b/análisis/Requerimientos/Funcionales/RF04_Asignar horaio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t>El sistema dbe permitir a los Hostel Worker ver los horarios disponibles para trabajar, para poder escoger y asignarse bloques de trabajo.</t>
+    <t>El sistema debe permitir a los Hostel Worker ver los horarios disponibles para trabajar, para poder escoger y asignarse bloques de trabajo.</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -654,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1827,8 +1830,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1888,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
